--- a/biology/Zoologie/Eunica_alpais/Eunica_alpais.xlsx
+++ b/biology/Zoologie/Eunica_alpais/Eunica_alpais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica alpais est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae, tribu des Epicaliini, du genre Eunica .
 </t>
@@ -511,25 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica alpais a été décrite par le naturaliste français Jean-Baptiste Godart en 1824, sous le nom initial de Nymphalis alpais.
-Synonymie
-Nymphalis alpais Godart, 1824 - protonyme
-Taxinomie
-Il existe 3 sous-espèces 
-Eunica alpais alpais (Godart, 1824)
-Synonymie pour cette sous-espèce
-Cybdelis cinara (Hewitson, 1852)[1]
-Eunica aspasia (C. &amp; R. Felder, 1861)
-Eunica cinara oreandra (Fruhstorfer, 1909)[2]
-Eunica cinara var. vega (Hall, 1919)
-Evonyme persephone proserpina (Röber, 1923)[3]
-Eunica excelsa f. excelsissima (Zikán, 1937)
-Eunica alpais araucana (C. &amp; R. Felder, 1862)
-Eunica alpais excelsa (Godman &amp; Salvin, 1877) [4]
-Nom vernaculaire
- Eunica alpais se nomme Shining Purplewing en anglais[5].
 </t>
         </is>
       </c>
@@ -555,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eunica alpais est un papillon au bord externe des ailes antérieures concaves et au bord externe des ailes antérieures dentelé. Le dessus est marron avec de larges plages bleu métallisé ou vert métallisé.
-Le revers est gris orné de marques et aux ailes postérieures de deux très gros ocelles noirs pupillés de bleu clair violacé[6].
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nymphalis alpais Godart, 1824 - protonyme</t>
         </is>
       </c>
     </row>
@@ -587,13 +589,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Période de vol
-Plantes hôtes</t>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 3 sous-espèces 
+Eunica alpais alpais (Godart, 1824)
+Synonymie pour cette sous-espèce
+Cybdelis cinara (Hewitson, 1852)
+Eunica aspasia (C. &amp; R. Felder, 1861)
+Eunica cinara oreandra (Fruhstorfer, 1909)
+Eunica cinara var. vega (Hall, 1919)
+Evonyme persephone proserpina (Röber, 1923)
+Eunica excelsa f. excelsissima (Zikán, 1937)
+Eunica alpais araucana (C. &amp; R. Felder, 1862)
+Eunica alpais excelsa (Godman &amp; Salvin, 1877) </t>
         </is>
       </c>
     </row>
@@ -618,15 +635,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica alpais se nomme Shining Purplewing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica alpais est un papillon au bord externe des ailes antérieures concaves et au bord externe des ailes antérieures dentelé. Le dessus est marron avec de larges plages bleu métallisé ou vert métallisé.
+Le revers est gris orné de marques et aux ailes postérieures de deux très gros ocelles noirs pupillés de bleu clair violacé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica alpais est présent principalement en Amérique du Sud : au Mexique, à Panama, au Costa Rica, en Bolivie, au Brésil dans le bassin de l'Amazone, en Colombie, en Équateur, au Guatemala, au Panama, au Pérou, au Venezuela, au Surinam et en Guyane[5],[7].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica alpais est présent principalement en Amérique du Sud : au Mexique, à Panama, au Costa Rica, en Bolivie, au Brésil dans le bassin de l'Amazone, en Colombie, en Équateur, au Guatemala, au Panama, au Pérou, au Venezuela, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_alpais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Eunica alpais, sur Wikimedia CommonsEunica alpais, sur Wikispecies
 </t>
